--- a/outputs-HGR-r202-archive/g__Prevotellamassilia.xlsx
+++ b/outputs-HGR-r202-archive/g__Prevotellamassilia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,91 +559,91 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27127.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001040849089552803</v>
+        <v>2.107140748539602e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9759205452422963</v>
+        <v>2.2206954297552e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001337405382947582</v>
+        <v>0.9669536244499596</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007136804769568274</v>
+        <v>0.0008751839972102295</v>
       </c>
       <c r="F3" t="n">
-        <v>5.399673134289171e-05</v>
+        <v>0.001934934501309896</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007244440213252175</v>
+        <v>0.002344010955381941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003935655223011882</v>
+        <v>0.01699943095797483</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002141184956135947</v>
+        <v>0.0006384750363635518</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220497679595315e-14</v>
+        <v>2.2206954297552e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01308139884571444</v>
+        <v>0.01023326869427005</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9759205452422963</v>
+        <v>0.9669536244499596</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp900539625</t>
+          <t>s__Prevotellamassilia sp900540885</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp900539625</t>
+          <t>s__Prevotellamassilia sp900540885</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001320985574105704</v>
+        <v>6.710215513853479e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.129283824786296e-13</v>
+        <v>2.220398074246234e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9653015259584642</v>
+        <v>0.98701308857035</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001917809214450656</v>
+        <v>0.0003198945936561434</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004709486429362341</v>
+        <v>0.0003083946499566994</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02640090731609116</v>
+        <v>0.00316963882209676</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009784305392731354</v>
+        <v>0.005965508705763094</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006222788229685285</v>
+        <v>0.0002477169942255973</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220152624739071e-14</v>
+        <v>2.220398074246234e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001663491454849956</v>
+        <v>0.002908655508768866</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9653015259584642</v>
+        <v>0.98701308857035</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -659,141 +659,141 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.107140748539602e-05</v>
+        <v>0.004891344502977597</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2206954297552e-14</v>
+        <v>3.05760260980792e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9669536244499596</v>
+        <v>0.01166793500997853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008751839972102295</v>
+        <v>0.0002272411934344706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001934934501309896</v>
+        <v>0.0009081621410426816</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002344010955381941</v>
+        <v>0.857575303798046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01699943095797483</v>
+        <v>0.1054939212243571</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006384750363635518</v>
+        <v>0.004436148866833103</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2206954297552e-14</v>
+        <v>3.057602609807898e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01023326869427005</v>
+        <v>0.01479994326326937</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9669536244499596</v>
+        <v>0.857575303798046</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp900540885</t>
+          <t>s__Prevotellamassilia sp900542795</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp900540885</t>
+          <t>s__Prevotellamassilia sp900542795</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.710215513853479e-05</v>
+        <v>0.0001764545539989981</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220398074246234e-14</v>
+        <v>8.595658236945817e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.98701308857035</v>
+        <v>0.009671106530164592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003198945936561434</v>
+        <v>8.769326370196198e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003083946499566994</v>
+        <v>0.0001184227343435187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00316963882209676</v>
+        <v>0.8875951916221277</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005965508705763094</v>
+        <v>0.09178257128408268</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002477169942255973</v>
+        <v>0.002287569145527995</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220398074246234e-14</v>
+        <v>8.595658236945804e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002908655508768866</v>
+        <v>0.008280990865880531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.98701308857035</v>
+        <v>0.8875951916221277</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp900540885</t>
+          <t>s__Prevotellamassilia sp900542795</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp900540885</t>
+          <t>s__Prevotellamassilia sp900542795</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000270120330735801</v>
+        <v>8.497917828718891e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9783839191750259</v>
+        <v>0.9909804030893222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004473534715895653</v>
+        <v>0.004036079998096174</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001464739911403209</v>
+        <v>0.0004296726087719654</v>
       </c>
       <c r="F7" t="n">
-        <v>1.093651264852781e-05</v>
+        <v>0.0001052843142559539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0009537777676780688</v>
+        <v>0.0004177557141587429</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0004091023787974632</v>
+        <v>0.0008892693954212333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001009897063198579</v>
+        <v>5.844685935488499e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>2.219965946100376e-14</v>
+        <v>2.220315578404106e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01795906074577968</v>
+        <v>0.00305071101572887</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9783839191750259</v>
+        <v>0.9909804030893222</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -803,206 +803,6 @@
       <c r="N7" t="inlineStr">
         <is>
           <t>s__Prevotellamassilia sp900539625</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6955.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.004891344502977597</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.05760260980792e-14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01166793500997853</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0002272411934344706</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0009081621410426816</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.857575303798046</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1054939212243571</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.004436148866833103</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.057602609807898e-14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.01479994326326937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.857575303798046</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp900542795</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp900542795</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6968.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0001764545539989981</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.595658236945817e-14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.009671106530164592</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.769326370196198e-05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0001184227343435187</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8875951916221277</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.09178257128408268</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.002287569145527995</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.595658236945804e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.008280990865880531</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8875951916221277</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp900542795</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp900542795</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74916.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8.497917828718891e-05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9909804030893222</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.004036079998096174</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0004296726087719654</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0001052843142559539</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0004177557141587429</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0008892693954212333</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.844685935488499e-06</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.220315578404106e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.00305071101572887</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9909804030893222</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp900539625</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp900539625</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80232.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.3844139648924568</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.446325900298745e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001702025150870267</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0003431217465650047</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0001047559863477433</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.04685950874657474</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1671712213533917</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3565965153341482</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.446325900298523e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.04280888678953667</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.3844139648924568</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp000437675</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>s__Prevotellamassilia sp000437675(reject)</t>
         </is>
       </c>
     </row>
